--- a/TestDataSheet/VehicleInsurance.xlsx
+++ b/TestDataSheet/VehicleInsurance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IntellijProjectWorkSpace\Project6\TestDataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57BB3A6-5FE8-4E7F-8C8B-F2681CBB8CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE888FE9-97B7-4209-9A28-901E86C08C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestDataSheet/VehicleInsurance.xlsx
+++ b/TestDataSheet/VehicleInsurance.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IntellijProjectWorkSpace\Project6\TestDataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE888FE9-97B7-4209-9A28-901E86C08C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2056154-47F7-46F2-980B-D78254D038C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VehicleInsurance" sheetId="1" r:id="rId1"/>
     <sheet name="VehicleInsuranceOutput" sheetId="2" r:id="rId2"/>
+    <sheet name="Automobile" sheetId="3" r:id="rId3"/>
+    <sheet name="Truck" sheetId="4" r:id="rId4"/>
+    <sheet name="MotorCycle" sheetId="5" r:id="rId5"/>
+    <sheet name="Camper" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VehicleInsurance!$B$1:$B$4</definedName>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="167">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -67,9 +71,6 @@
     <t>Test Case 2: Truck</t>
   </si>
   <si>
-    <t>Test Case 3: Camper</t>
-  </si>
-  <si>
     <t>https://sampleapp.tricentis.com/</t>
   </si>
   <si>
@@ -118,17 +119,428 @@
     <t>123</t>
   </si>
   <si>
-    <t>Test Case 4: MotorCycle</t>
-  </si>
-  <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Engine Performance</t>
+  </si>
+  <si>
+    <t>Date Of Manufacture</t>
+  </si>
+  <si>
+    <t>Number of Seats</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>List Price</t>
+  </si>
+  <si>
+    <t>License Plate Number</t>
+  </si>
+  <si>
+    <t>Annual Milege</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Mazda</t>
+  </si>
+  <si>
+    <t>Mercedes Benz</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Opel</t>
+  </si>
+  <si>
+    <t>Porsche</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>Skoda</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>2/28/1984</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>StreetAddress</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>Swarup</t>
+  </si>
+  <si>
+    <t>Pawar</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc Chowk </t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>abc.abc.com</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>InsuranceSum</t>
+  </si>
+  <si>
+    <t>3.000.000,00</t>
+  </si>
+  <si>
+    <t>MeritRating</t>
+  </si>
+  <si>
+    <t>DamageInsurance</t>
+  </si>
+  <si>
+    <t>No Coverage</t>
+  </si>
+  <si>
+    <t>OptionalProduct</t>
+  </si>
+  <si>
+    <t>CourtesyCar</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>PriceOption</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>sk@gmail.com</t>
+  </si>
+  <si>
+    <t>Swar@tcs03</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>2/22/1984</t>
+  </si>
+  <si>
+    <t>2/23/1984</t>
+  </si>
+  <si>
+    <t>2/24/1984</t>
+  </si>
+  <si>
+    <t>2/25/1984</t>
+  </si>
+  <si>
+    <t>2/26/1984</t>
+  </si>
+  <si>
+    <t>2/27/1984</t>
+  </si>
+  <si>
+    <t>2/29/1984</t>
+  </si>
+  <si>
+    <t>3/1/1984</t>
+  </si>
+  <si>
+    <t>3/2/1984</t>
+  </si>
+  <si>
+    <t>3/3/1984</t>
+  </si>
+  <si>
+    <t>3/4/1984</t>
+  </si>
+  <si>
+    <t>3/5/1984</t>
+  </si>
+  <si>
+    <t>3/6/1984</t>
+  </si>
+  <si>
+    <t>3/7/1984</t>
+  </si>
+  <si>
+    <t>PayLoad</t>
+  </si>
+  <si>
+    <t>TotalWeight</t>
+  </si>
+  <si>
+    <t>2344556677</t>
+  </si>
+  <si>
+    <t>2344556678</t>
+  </si>
+  <si>
+    <t>2344556679</t>
+  </si>
+  <si>
+    <t>2344556680</t>
+  </si>
+  <si>
+    <t>2344556681</t>
+  </si>
+  <si>
+    <t>2344556682</t>
+  </si>
+  <si>
+    <t>2344556683</t>
+  </si>
+  <si>
+    <t>2344556684</t>
+  </si>
+  <si>
+    <t>2344556685</t>
+  </si>
+  <si>
+    <t>2344556686</t>
+  </si>
+  <si>
+    <t>2344556687</t>
+  </si>
+  <si>
+    <t>2344556688</t>
+  </si>
+  <si>
+    <t>2344556689</t>
+  </si>
+  <si>
+    <t>2344556690</t>
+  </si>
+  <si>
+    <t>2344556691</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>CylinderCapacity</t>
+  </si>
+  <si>
+    <t>Scooter</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>442233</t>
+  </si>
+  <si>
+    <t>442234</t>
+  </si>
+  <si>
+    <t>442235</t>
+  </si>
+  <si>
+    <t>442236</t>
+  </si>
+  <si>
+    <t>442237</t>
+  </si>
+  <si>
+    <t>442238</t>
+  </si>
+  <si>
+    <t>442239</t>
+  </si>
+  <si>
+    <t>442240</t>
+  </si>
+  <si>
+    <t>442241</t>
+  </si>
+  <si>
+    <t>442242</t>
+  </si>
+  <si>
+    <t>442243</t>
+  </si>
+  <si>
+    <t>442244</t>
+  </si>
+  <si>
+    <t>442245</t>
+  </si>
+  <si>
+    <t>442246</t>
+  </si>
+  <si>
+    <t>442247</t>
+  </si>
+  <si>
+    <t>RightHandDrive</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Speeding</t>
+  </si>
+  <si>
+    <t>Bonus 1</t>
+  </si>
+  <si>
+    <t>Euro Protection</t>
+  </si>
+  <si>
+    <t>SK104</t>
+  </si>
+  <si>
+    <t>Test Case 4: Camper</t>
+  </si>
+  <si>
+    <t>Test Case 3: MotorCycle</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Test Case 5: MotorCycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +560,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -226,6 +644,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -507,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,28 +956,28 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -566,37 +985,37 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -610,36 +1029,36 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -648,36 +1067,36 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -686,31 +1105,69 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -721,9 +1178,10 @@
     <hyperlink ref="D3" r:id="rId3" xr:uid="{8FCF7135-07DE-47B1-AF4F-25F4CD71535B}"/>
     <hyperlink ref="D4" r:id="rId4" xr:uid="{2FB942F0-BD4A-45BE-B165-DCD03B369CA5}"/>
     <hyperlink ref="D5" r:id="rId5" xr:uid="{DB78FBFD-0199-404E-B090-D6F61E212AC3}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{CDEA6FB0-F000-4A38-A07D-994593644DA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -732,13 +1190,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -767,4 +1225,6562 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC194E47-55BD-4743-BCA6-FA0ABE0EBAB4}">
+  <dimension ref="A1:AF16"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.44140625" customWidth="1"/>
+    <col min="30" max="30" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="AA2" r:id="rId1" xr:uid="{B66C87FB-E074-48EF-B23A-F844A62B135D}"/>
+    <hyperlink ref="AD2" r:id="rId2" xr:uid="{001E0254-B743-4C20-B03F-029AF412FA69}"/>
+    <hyperlink ref="AE2" r:id="rId3" xr:uid="{28982073-DCF9-48EC-AF7A-B3681F8F2E1E}"/>
+    <hyperlink ref="AA3" r:id="rId4" xr:uid="{C608C370-0F93-44E4-8E21-55197E564574}"/>
+    <hyperlink ref="AA4" r:id="rId5" xr:uid="{77728347-BDA2-492B-85E1-A833897560C9}"/>
+    <hyperlink ref="AA5" r:id="rId6" xr:uid="{F0AD5087-261A-486C-8F61-502C8D5D542D}"/>
+    <hyperlink ref="AA6" r:id="rId7" xr:uid="{25F305A4-20A8-4983-9A32-55D821BE5FB8}"/>
+    <hyperlink ref="AA7" r:id="rId8" xr:uid="{A283D451-DA8A-4C15-90DF-5794F7F403BB}"/>
+    <hyperlink ref="AA8" r:id="rId9" xr:uid="{9ABBCA2A-7F49-45A0-89F6-AF760D981616}"/>
+    <hyperlink ref="AA9" r:id="rId10" xr:uid="{740F0B30-F648-4D7A-AA08-44D442F2EE57}"/>
+    <hyperlink ref="AA10" r:id="rId11" xr:uid="{A6499DB9-7823-4D1F-AE9E-B8518DD58E47}"/>
+    <hyperlink ref="AA11" r:id="rId12" xr:uid="{AC932BB9-199F-43E9-8BC2-0B6BA04E6EF7}"/>
+    <hyperlink ref="AA12" r:id="rId13" xr:uid="{5DD9A604-0D98-4D70-BC9B-01C1A1F5F0D8}"/>
+    <hyperlink ref="AA13" r:id="rId14" xr:uid="{A25BD030-EC90-4251-B24E-99D089664FC9}"/>
+    <hyperlink ref="AA14" r:id="rId15" xr:uid="{2645F7AE-6DEA-404F-A38F-B1C24149EED6}"/>
+    <hyperlink ref="AA15" r:id="rId16" xr:uid="{DA99A8B5-D698-493B-B23F-15DBE8DFB64F}"/>
+    <hyperlink ref="AA16" r:id="rId17" xr:uid="{B41EB2B7-7DA2-452F-A118-848C2215E48B}"/>
+    <hyperlink ref="AD3" r:id="rId18" xr:uid="{7427C30D-E815-43B5-9346-4E13B70FE211}"/>
+    <hyperlink ref="AD4" r:id="rId19" xr:uid="{2E70279A-5D52-4FC6-B1FC-37DCE2F1846A}"/>
+    <hyperlink ref="AD5" r:id="rId20" xr:uid="{F866A6B2-4DCE-405C-9588-20180A81CF36}"/>
+    <hyperlink ref="AD6" r:id="rId21" xr:uid="{CDBB556A-824D-4A5F-B05D-E343028F9162}"/>
+    <hyperlink ref="AD7" r:id="rId22" xr:uid="{E90C6758-8141-4C66-A50F-86CD9B5EE855}"/>
+    <hyperlink ref="AD8" r:id="rId23" xr:uid="{77DFD97F-755B-46D3-BF0A-7CC6EE9A616E}"/>
+    <hyperlink ref="AD9" r:id="rId24" xr:uid="{73409F0D-6388-4FB8-B5DE-3AE437CE6AEC}"/>
+    <hyperlink ref="AD10" r:id="rId25" xr:uid="{27256ADC-A480-4569-9D5A-04539AC755C2}"/>
+    <hyperlink ref="AD11" r:id="rId26" xr:uid="{ACC64BB8-56DB-4E3B-9B36-655ED603C266}"/>
+    <hyperlink ref="AD12" r:id="rId27" xr:uid="{71BD312B-B5D1-469B-9FD1-3A3EFE8FBF01}"/>
+    <hyperlink ref="AD13" r:id="rId28" xr:uid="{D12EE761-74B2-44E3-9802-60A604EDF6D4}"/>
+    <hyperlink ref="AD14" r:id="rId29" xr:uid="{445D9D54-B4BE-4F49-B06F-1976DB51ADE8}"/>
+    <hyperlink ref="AD15" r:id="rId30" xr:uid="{B6D2545B-DE49-4E76-B7D7-6DFA3D68D389}"/>
+    <hyperlink ref="AD16" r:id="rId31" xr:uid="{0E4A3814-D244-4501-9378-02DE1134AD59}"/>
+    <hyperlink ref="AE3" r:id="rId32" xr:uid="{A1CF2454-2377-44E1-9C9C-2E3F5F8DCBC7}"/>
+    <hyperlink ref="AE4" r:id="rId33" xr:uid="{B5B09B20-9E56-44E7-BCE2-3C14C5CA7950}"/>
+    <hyperlink ref="AE5" r:id="rId34" xr:uid="{1650A9E9-14B8-4A51-AB1D-5B977624DB9F}"/>
+    <hyperlink ref="AE6" r:id="rId35" xr:uid="{FF402FE1-5891-48AB-AA95-5F343D89A22D}"/>
+    <hyperlink ref="AE7" r:id="rId36" xr:uid="{EEEDA3AC-B131-41B9-90C1-5008AED84EF8}"/>
+    <hyperlink ref="AE8" r:id="rId37" xr:uid="{1A460DB8-646B-4DF0-9C65-D78490813CB1}"/>
+    <hyperlink ref="AE9" r:id="rId38" xr:uid="{DA27E9B7-C510-4640-83F8-EC8D9990E443}"/>
+    <hyperlink ref="AE10" r:id="rId39" xr:uid="{6504A85B-D377-4EC9-8C70-AD5D2497F9DD}"/>
+    <hyperlink ref="AE11" r:id="rId40" xr:uid="{8903CF36-A298-44DA-9A5E-AE9150D2A752}"/>
+    <hyperlink ref="AE12" r:id="rId41" xr:uid="{BB8EF1C0-BD94-482F-A31A-7403D964374B}"/>
+    <hyperlink ref="AE13" r:id="rId42" xr:uid="{78FBD50E-FD0E-4999-A834-847A16F945C8}"/>
+    <hyperlink ref="AE14" r:id="rId43" xr:uid="{5FF68146-2442-4F89-A1FC-6489CB0740AA}"/>
+    <hyperlink ref="AE15" r:id="rId44" xr:uid="{28CE4056-3DDA-4CDD-AF15-10DF6A462E61}"/>
+    <hyperlink ref="AE16" r:id="rId45" xr:uid="{53E9F89C-CFF8-4EFF-AD15-47210BEB11B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F77A89D-8D80-4F44-846C-E9D7B19E4562}">
+  <dimension ref="A1:AF16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AA2" r:id="rId1" xr:uid="{2CBFB957-8004-44BD-9649-C80012BDB644}"/>
+    <hyperlink ref="AD2" r:id="rId2" xr:uid="{7D5FDD90-3891-4BC4-A3CD-BBA77431AD92}"/>
+    <hyperlink ref="AE2" r:id="rId3" xr:uid="{DF6834DE-3AB8-4A19-9429-C6DA850CD072}"/>
+    <hyperlink ref="AA3" r:id="rId4" xr:uid="{18FEBC7D-D654-4B3E-9AB7-CD4D788A935C}"/>
+    <hyperlink ref="AA4" r:id="rId5" xr:uid="{A0DA01A6-4112-40F7-ACAD-BAE10D6B4D0D}"/>
+    <hyperlink ref="AA5" r:id="rId6" xr:uid="{31985982-4F2F-4DB1-A162-86B070935309}"/>
+    <hyperlink ref="AA6" r:id="rId7" xr:uid="{38932E9D-E5EF-4660-89B5-D23A3EAB3390}"/>
+    <hyperlink ref="AA7" r:id="rId8" xr:uid="{F58A5F17-CB5E-4687-A95F-CBB9D621C0F6}"/>
+    <hyperlink ref="AA8" r:id="rId9" xr:uid="{CC3ACDE4-F52B-4434-A31E-74E99A1DC3FF}"/>
+    <hyperlink ref="AA9" r:id="rId10" xr:uid="{C8F5BFDF-C72D-4137-97DB-ACE8C47F9231}"/>
+    <hyperlink ref="AA10" r:id="rId11" xr:uid="{9274AA65-612D-4CD3-ACA1-D378696523F3}"/>
+    <hyperlink ref="AA11" r:id="rId12" xr:uid="{CAD9D545-7721-4BCD-9043-F65C63739D84}"/>
+    <hyperlink ref="AA12" r:id="rId13" xr:uid="{4D5E1EC6-9094-4FCB-B78C-F648B5C85BF8}"/>
+    <hyperlink ref="AA13" r:id="rId14" xr:uid="{10F9CA6C-9F2A-404D-9A72-7BBC595ABD76}"/>
+    <hyperlink ref="AA14" r:id="rId15" xr:uid="{ED863FFF-D996-4558-8C1B-BB5A8419D15F}"/>
+    <hyperlink ref="AA15" r:id="rId16" xr:uid="{97969D20-F758-4FC6-A57C-4AC58A18DBF3}"/>
+    <hyperlink ref="AA16" r:id="rId17" xr:uid="{AA28A6D1-4086-44AF-8FED-209696206F8C}"/>
+    <hyperlink ref="AD3" r:id="rId18" xr:uid="{88AD97B4-1DC0-4E33-AE87-867B5A31AE61}"/>
+    <hyperlink ref="AD4" r:id="rId19" xr:uid="{35DA12D4-124A-4CF5-9FEB-35B624C76A0E}"/>
+    <hyperlink ref="AD5" r:id="rId20" xr:uid="{702448B4-4847-40C5-B172-5F14A7F649FB}"/>
+    <hyperlink ref="AD6" r:id="rId21" xr:uid="{ED00A5A1-EC91-427E-8954-64E43C75A3AD}"/>
+    <hyperlink ref="AD7" r:id="rId22" xr:uid="{6A2C37B7-31D7-4213-A553-67638C4BA0E1}"/>
+    <hyperlink ref="AD8" r:id="rId23" xr:uid="{A9676B20-4B1A-4D51-8B92-877E13AFFE4D}"/>
+    <hyperlink ref="AD9" r:id="rId24" xr:uid="{F9F27929-C7B0-44EA-BDFC-9236C5952B3E}"/>
+    <hyperlink ref="AD10" r:id="rId25" xr:uid="{3BF3A80B-D8B2-4864-8047-A87CF9ED2F2D}"/>
+    <hyperlink ref="AD11" r:id="rId26" xr:uid="{DEC4587D-997B-4D92-8CA2-7CE6AB3F349C}"/>
+    <hyperlink ref="AD12" r:id="rId27" xr:uid="{39314F8D-4B04-4EDA-883E-8FD1ACA338A3}"/>
+    <hyperlink ref="AD13" r:id="rId28" xr:uid="{28E43EAC-D44B-4B81-AC60-92BAACA1BD49}"/>
+    <hyperlink ref="AD14" r:id="rId29" xr:uid="{4C512D0B-25B0-434C-917C-43A347D28BF3}"/>
+    <hyperlink ref="AD15" r:id="rId30" xr:uid="{4B43F7E2-5604-4A76-B351-72C610456D4E}"/>
+    <hyperlink ref="AD16" r:id="rId31" xr:uid="{7FDED57A-98E8-4F23-B3ED-26A3D12D93CF}"/>
+    <hyperlink ref="AE3" r:id="rId32" xr:uid="{056D1F3F-B9BF-4D31-BC49-36B084688439}"/>
+    <hyperlink ref="AE4" r:id="rId33" xr:uid="{F62D0788-92E8-42F2-AF68-8A1C44B7F4A4}"/>
+    <hyperlink ref="AE5" r:id="rId34" xr:uid="{EB8191C3-21CD-45D7-AD87-5FB9A0D97622}"/>
+    <hyperlink ref="AE6" r:id="rId35" xr:uid="{D1B6A247-0B38-400D-B9C9-F1EF1FEDAEBB}"/>
+    <hyperlink ref="AE7" r:id="rId36" xr:uid="{3B31045C-A0CE-416B-A1BE-3AEC0BD6BAB1}"/>
+    <hyperlink ref="AE8" r:id="rId37" xr:uid="{811432D7-3E09-43D9-861C-39A0208D3FAB}"/>
+    <hyperlink ref="AE9" r:id="rId38" xr:uid="{FBC41631-E4D4-45B2-B387-1F6369B8895E}"/>
+    <hyperlink ref="AE10" r:id="rId39" xr:uid="{945522AC-382B-4268-B357-BEF50A40F3C8}"/>
+    <hyperlink ref="AE11" r:id="rId40" xr:uid="{F3F088B7-B80C-4E55-83F4-6FA70870D50A}"/>
+    <hyperlink ref="AE12" r:id="rId41" xr:uid="{93CE0E4F-7318-4BD3-8803-2F5E46B7797F}"/>
+    <hyperlink ref="AE13" r:id="rId42" xr:uid="{43C65EC9-2072-42A0-842F-F189759DCE92}"/>
+    <hyperlink ref="AE14" r:id="rId43" xr:uid="{272E3635-DF6F-4233-88E0-C3F734AD383E}"/>
+    <hyperlink ref="AE15" r:id="rId44" xr:uid="{8CE3FE1B-6E93-4DB5-84F4-68BEAA094B13}"/>
+    <hyperlink ref="AE16" r:id="rId45" xr:uid="{D148D492-7985-4473-BEEE-5B0AA6AB8C32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D8DF70-AA75-4EF8-B3FC-15E7A802AF44}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1" xr:uid="{2B6B80C5-6CFC-4B9E-885F-A3FA33681F08}"/>
+    <hyperlink ref="AB2" r:id="rId2" xr:uid="{9828EB04-17AD-4640-8D52-262C261C24EB}"/>
+    <hyperlink ref="AC2" r:id="rId3" xr:uid="{67C7D270-7F40-441B-8F8C-C6ED7E62C331}"/>
+    <hyperlink ref="Y3" r:id="rId4" xr:uid="{037F609D-8DAD-4E1F-9F19-F6A8010C56FE}"/>
+    <hyperlink ref="Y4" r:id="rId5" xr:uid="{348F7FB1-1F5B-4875-8140-A70198F5D2B8}"/>
+    <hyperlink ref="Y5" r:id="rId6" xr:uid="{F86E5DFC-4B3E-4EC6-9A3E-2B98EA9D40C5}"/>
+    <hyperlink ref="Y6" r:id="rId7" xr:uid="{21926953-8FD1-4F9E-83DD-11A4BC26023E}"/>
+    <hyperlink ref="Y7" r:id="rId8" xr:uid="{D649F193-9CBD-44E5-9876-D07401A099D7}"/>
+    <hyperlink ref="Y8" r:id="rId9" xr:uid="{B8ECD921-D9CB-4DB7-A584-EC23A2CD90B1}"/>
+    <hyperlink ref="Y9" r:id="rId10" xr:uid="{47EF9902-E100-4DE0-B844-40A4F0ECF7F4}"/>
+    <hyperlink ref="Y10" r:id="rId11" xr:uid="{873FF64D-551D-481E-B4B5-34B68958EB1D}"/>
+    <hyperlink ref="Y11" r:id="rId12" xr:uid="{312E7A06-0C99-4E65-8D2B-389D42DBD399}"/>
+    <hyperlink ref="Y12" r:id="rId13" xr:uid="{82B777A6-9919-44CC-AE32-4C7EFB2589AC}"/>
+    <hyperlink ref="Y13" r:id="rId14" xr:uid="{274752EF-6C01-4FA4-BCB1-20F5DB552554}"/>
+    <hyperlink ref="Y14" r:id="rId15" xr:uid="{3419F19A-D315-420E-891C-99155DAD29FC}"/>
+    <hyperlink ref="Y15" r:id="rId16" xr:uid="{43A8DE44-2D08-47BA-A7D1-43EA699094A0}"/>
+    <hyperlink ref="Y16" r:id="rId17" xr:uid="{6F6C286F-BCBF-4A34-B65E-E049714BEADF}"/>
+    <hyperlink ref="AB3" r:id="rId18" xr:uid="{7FB98E1E-B5E4-4D31-8751-6EDF54684C25}"/>
+    <hyperlink ref="AB4" r:id="rId19" xr:uid="{8C8E5582-ABFB-4F65-8D1A-B4BE68A48622}"/>
+    <hyperlink ref="AB5" r:id="rId20" xr:uid="{D922879E-0303-49EC-BA8F-2D8B9DC97398}"/>
+    <hyperlink ref="AB6" r:id="rId21" xr:uid="{18112F5A-5B7B-48F5-9D23-49767F8050CF}"/>
+    <hyperlink ref="AB7" r:id="rId22" xr:uid="{CB262A68-C62F-4CFB-8C3A-C3A42F2E8853}"/>
+    <hyperlink ref="AB8" r:id="rId23" xr:uid="{A4272505-B241-4FD7-BF5C-CD00D4DC165D}"/>
+    <hyperlink ref="AB9" r:id="rId24" xr:uid="{1DB51573-E324-42A4-9846-656D8069C912}"/>
+    <hyperlink ref="AB10" r:id="rId25" xr:uid="{EA2BA8DF-2FD2-4F11-8990-377EA30CE934}"/>
+    <hyperlink ref="AB11" r:id="rId26" xr:uid="{58A89BCD-B074-41F8-8C99-A54B19D4BF83}"/>
+    <hyperlink ref="AB12" r:id="rId27" xr:uid="{B5356E27-59CD-45E0-9CEC-4FA1B0DBC22C}"/>
+    <hyperlink ref="AB13" r:id="rId28" xr:uid="{8CE9E246-D644-4475-A9F7-4D222356D41B}"/>
+    <hyperlink ref="AB14" r:id="rId29" xr:uid="{F29C9F0E-B1FB-4145-9AB0-BF7CC2E463A1}"/>
+    <hyperlink ref="AB15" r:id="rId30" xr:uid="{D4324186-CE66-40F9-B01D-25A0B8DDC043}"/>
+    <hyperlink ref="AB16" r:id="rId31" xr:uid="{1AF61EDE-F1AA-4803-9B89-247AEB018EAA}"/>
+    <hyperlink ref="AC3" r:id="rId32" xr:uid="{74708B23-F50E-4726-808E-5219EBCD04C6}"/>
+    <hyperlink ref="AC4" r:id="rId33" xr:uid="{5E9298C0-0325-4C1D-A964-F672A815C4BA}"/>
+    <hyperlink ref="AC5" r:id="rId34" xr:uid="{A93A8349-A905-47AD-9110-697FF6889D40}"/>
+    <hyperlink ref="AC6" r:id="rId35" xr:uid="{F832D783-F303-4168-98ED-2BB4E828F046}"/>
+    <hyperlink ref="AC7" r:id="rId36" xr:uid="{0CCD0E88-6AF1-4459-85F1-9CFA40AFE3B3}"/>
+    <hyperlink ref="AC8" r:id="rId37" xr:uid="{7E01968E-7DD7-486C-8DFA-8C7758B1D3A8}"/>
+    <hyperlink ref="AC9" r:id="rId38" xr:uid="{67B3806A-899D-489A-9E91-D1A5B601C040}"/>
+    <hyperlink ref="AC10" r:id="rId39" xr:uid="{337EBBDF-8707-4567-95D5-10761A799323}"/>
+    <hyperlink ref="AC11" r:id="rId40" xr:uid="{D29C587D-90B1-42B2-9C45-C8375FE25DDC}"/>
+    <hyperlink ref="AC12" r:id="rId41" xr:uid="{6A975188-F503-4D7F-B16B-14843A223648}"/>
+    <hyperlink ref="AC13" r:id="rId42" xr:uid="{4B4F838C-584A-46CB-A02F-2C602AE708FC}"/>
+    <hyperlink ref="AC14" r:id="rId43" xr:uid="{06AF5B72-D2EE-485A-9D47-801E963F88A8}"/>
+    <hyperlink ref="AC15" r:id="rId44" xr:uid="{254AA435-9329-4D0C-AC7D-65448433F1F4}"/>
+    <hyperlink ref="AC16" r:id="rId45" xr:uid="{253FA292-419E-40B8-A1C3-7D25942EA1AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0207BBE0-3102-41E9-9C77-E8E1A2C3EEAC}">
+  <dimension ref="A1:AG16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{2BF09989-2463-4D1F-832F-2D4497887E42}"/>
+    <hyperlink ref="AE2" r:id="rId2" xr:uid="{65163B1C-D5E4-4108-AF7D-EA47C34F8997}"/>
+    <hyperlink ref="AF2" r:id="rId3" xr:uid="{030DA8F2-7166-4B35-96BC-F9E97F2A962E}"/>
+    <hyperlink ref="AB3" r:id="rId4" xr:uid="{B582256C-14A5-44A5-8790-826FF9C2EEFC}"/>
+    <hyperlink ref="AB4" r:id="rId5" xr:uid="{3BD9FF49-1CF6-4A77-B034-A595BE3B156B}"/>
+    <hyperlink ref="AB5" r:id="rId6" xr:uid="{1D644FDD-46C5-4260-BE9F-407C8D27E11A}"/>
+    <hyperlink ref="AB6" r:id="rId7" xr:uid="{144EF9D5-792D-4BFA-A187-99004E1E873B}"/>
+    <hyperlink ref="AB7" r:id="rId8" xr:uid="{DC3F6656-4E60-4DC9-9220-B9A9F0A871EA}"/>
+    <hyperlink ref="AB8" r:id="rId9" xr:uid="{563DC0B2-239E-44B8-9D68-63D40C9D5562}"/>
+    <hyperlink ref="AB9" r:id="rId10" xr:uid="{C2A5CD8B-767B-43CD-A757-4F652235A63C}"/>
+    <hyperlink ref="AB10" r:id="rId11" xr:uid="{50538808-5597-41A0-87BB-EE375F4A6C03}"/>
+    <hyperlink ref="AB11" r:id="rId12" xr:uid="{F7A445CE-2115-41A2-905C-DF4A0D912C06}"/>
+    <hyperlink ref="AB12" r:id="rId13" xr:uid="{979ABF47-D77F-4132-B582-9642039FE3E5}"/>
+    <hyperlink ref="AB13" r:id="rId14" xr:uid="{4E81AE3D-9C33-4CF4-B45F-9336BEB12557}"/>
+    <hyperlink ref="AB14" r:id="rId15" xr:uid="{7EE9291C-082C-4AA4-9189-FA7982E18408}"/>
+    <hyperlink ref="AB15" r:id="rId16" xr:uid="{585C37B0-ED17-48A5-B560-323931ED8802}"/>
+    <hyperlink ref="AB16" r:id="rId17" xr:uid="{80B6F35C-9E3C-46B2-BB4E-AB890357B0B6}"/>
+    <hyperlink ref="AE3" r:id="rId18" xr:uid="{E9007CB2-12D0-48AF-BF84-6F33BD20EEDB}"/>
+    <hyperlink ref="AE4" r:id="rId19" xr:uid="{B9268449-C3F9-4E53-978F-4B1F2B6B46A6}"/>
+    <hyperlink ref="AE5" r:id="rId20" xr:uid="{AB6AB690-CD21-4EEC-BF88-704E554EE488}"/>
+    <hyperlink ref="AE6" r:id="rId21" xr:uid="{AB1945AD-0254-4CAE-A2DB-F9F6FFE433B4}"/>
+    <hyperlink ref="AE7" r:id="rId22" xr:uid="{FAEE9D86-DE2D-462F-965E-6B4AD2B01909}"/>
+    <hyperlink ref="AE8" r:id="rId23" xr:uid="{5FAAF97F-4F0E-4ACB-80BD-0CA9B5D3EC46}"/>
+    <hyperlink ref="AE9" r:id="rId24" xr:uid="{24D2ECD4-7499-4270-A56B-15FABA8509A3}"/>
+    <hyperlink ref="AE10" r:id="rId25" xr:uid="{4A50B09C-337E-40F0-A2B3-B20DC1F039DA}"/>
+    <hyperlink ref="AE11" r:id="rId26" xr:uid="{28AE5DD8-6C13-440E-A686-83C69125A80D}"/>
+    <hyperlink ref="AE12" r:id="rId27" xr:uid="{3106DE62-CE80-4286-A63C-6FFF1A51BCD8}"/>
+    <hyperlink ref="AE13" r:id="rId28" xr:uid="{7065AAE0-73C6-46E1-9BD1-B1ED38B120B7}"/>
+    <hyperlink ref="AE14" r:id="rId29" xr:uid="{F43D8FBD-9690-45E4-8283-D9E377C8DE8B}"/>
+    <hyperlink ref="AE15" r:id="rId30" xr:uid="{31EE4E08-1BBF-4939-BA51-D08B283F7B69}"/>
+    <hyperlink ref="AE16" r:id="rId31" xr:uid="{9F0AE129-BC98-4341-9150-C90F7D86A2A4}"/>
+    <hyperlink ref="AF3" r:id="rId32" xr:uid="{2AA914C4-1610-4406-A985-0038CEE16556}"/>
+    <hyperlink ref="AF4" r:id="rId33" xr:uid="{2B8D1E0A-E13C-4BB5-B605-DC9E61F45AA2}"/>
+    <hyperlink ref="AF5" r:id="rId34" xr:uid="{D4A9546A-FD07-413C-AB28-C622050A64F9}"/>
+    <hyperlink ref="AF6" r:id="rId35" xr:uid="{B2B51F71-F8C5-4529-A709-0B3224C9C0D4}"/>
+    <hyperlink ref="AF7" r:id="rId36" xr:uid="{AB0A818C-DB43-4BB4-9E4A-9C68D25A7911}"/>
+    <hyperlink ref="AF8" r:id="rId37" xr:uid="{DB008B0E-915E-4F5A-8084-9B0C66EA3DE2}"/>
+    <hyperlink ref="AF9" r:id="rId38" xr:uid="{DF8B55E6-09CF-4106-ACD1-5F2E5172A1B1}"/>
+    <hyperlink ref="AF10" r:id="rId39" xr:uid="{E7DC41BE-4AC9-4686-8EAF-1543CC760432}"/>
+    <hyperlink ref="AF11" r:id="rId40" xr:uid="{8135917D-9D97-460E-A2B2-0630542FFF4C}"/>
+    <hyperlink ref="AF12" r:id="rId41" xr:uid="{380A9DB0-449F-48CD-AFF6-7E9465487AFF}"/>
+    <hyperlink ref="AF13" r:id="rId42" xr:uid="{FE719EAC-4B25-41E6-881C-D4F8CE9582C0}"/>
+    <hyperlink ref="AF14" r:id="rId43" xr:uid="{5930294E-0162-46CE-A911-FDB54C4D38F7}"/>
+    <hyperlink ref="AF15" r:id="rId44" xr:uid="{FC213513-AA7A-48F9-B53D-F4668538F413}"/>
+    <hyperlink ref="AF16" r:id="rId45" xr:uid="{52D97357-3709-495A-9EEF-B174F60F5426}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>